--- a/测试_学习提升/培训知识笔记.xlsx
+++ b/测试_学习提升/培训知识笔记.xlsx
@@ -16,9 +16,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+  <si>
+    <t>智能化三大发展方向：驾驶自动化、座舱、网联智能化</t>
+  </si>
+  <si>
+    <t>当前汽车智能化应用大部分能与之关联的是智能驾驶。实际上，真正的智能化有三大发展方向：驾驶自动化、座舱智能化、网联智能化。</t>
+  </si>
+  <si>
+    <t>要实现真正的无人驾驶汽车，既需要在智能网联的帮助下，将人从动态驾驶任务中释放出来，又需要促成座舱数字化、信息化、多功能化。</t>
+  </si>
+  <si>
+    <t>即从自动驾驶到无人驾驶阶段，娱乐域内部的ECU需要完成融合，将与自动驾驶域进行高速通信。智能座舱将完成对外部环境的可视化、完成对驾驶舱内人员的状态、情绪的感知。</t>
+  </si>
+  <si>
+    <t>同时，车载人机交互系统逐步整合，组成“电子座舱域”，并形成系统分层。</t>
+  </si>
+  <si>
+    <t>mcu,（Motor Control Unit）电机控制单元，即电机控制器 。根据VCU的指令，控制电机的旋转状态。控制电机电动汽车常用名词。</t>
+  </si>
+  <si>
+    <t>bsp,车载嵌入式软件工程师</t>
+  </si>
+  <si>
+    <t>ivi 车载信息娱乐系统（IVI）</t>
+  </si>
+  <si>
+    <t>mcu与ecu</t>
+  </si>
+  <si>
+    <t>ECU一般由MCU，扩展内存，扩展IO口，CAN/LIN总线收发控制器等设备组成。</t>
+  </si>
+  <si>
+    <t>mcu与cpu</t>
+  </si>
+  <si>
+    <t>区别：CPU是数据处理的单元，MCU中一般包含CPU，但除了数据处理单元外还有其他的外围的模块，如、RAM、ROM、定时计数器和多种I/O接口等，也就是说，MCU是集成了CPU和其他外围模块的微型控制单元。</t>
+  </si>
+  <si>
+    <t>关系：MCU是在CPU的频率与规格做适当缩减，并添加上内存等形成芯片级计算机。</t>
+  </si>
   <si>
     <t>智能座舱</t>
+  </si>
+  <si>
+    <t>@一、定义：满足消费者个性化需求的智能移动空间</t>
+  </si>
+  <si>
+    <t>@二、如何体现智能：</t>
+  </si>
+  <si>
+    <t>1.对车智能，车载芯片和系统对can、ecu等电子器件反馈的数据进行计算，协助车辆做出决策</t>
+  </si>
+  <si>
+    <t>2.对路智能，通过V2x对道路状况，拥堵情况等信息进行感知和判断</t>
+  </si>
+  <si>
+    <t>3.对人智能，只能座舱内的驾乘人员通过人机交互方式进行互动，满足用户需求</t>
+  </si>
+  <si>
+    <t>4.云端智能，将外部数据上传到云端进行处理计算，从而对资源进行有效的适配</t>
+  </si>
+  <si>
+    <t>@三、特点：智能座舱具备安全性，交互性，全场景，智能化的特点</t>
+  </si>
+  <si>
+    <t>@四、发展阶段：1.电子座舱：包含车载收音机、中央显示屏、车载导航、电子座舱域</t>
+  </si>
+  <si>
+    <t>2.智能助理：各类传感器的应用，使对环境感知、数据收集和处理能力逐渐强大，实现智能驾驶辅助等系列功能</t>
+  </si>
+  <si>
+    <t>@1独立感知层：视觉，手势，语言，人脸识别，疲劳检测</t>
+  </si>
+  <si>
+    <t>@2 交互方式升级，触屏交互，语言交互，手势交互</t>
+  </si>
+  <si>
+    <t>3. 第三生活空间：弱化驾驶员角色，以乘客为中心，提供AI场景化服务以及沉浸式的体验，围绕乘乘坐体验打造‘智能移动空间’</t>
+  </si>
+  <si>
+    <t>@五、发展趋势</t>
+  </si>
+  <si>
+    <t>1.全新座舱环境</t>
+  </si>
+  <si>
+    <t>2.直觉化、智能化与个性化的座舱交互</t>
+  </si>
+  <si>
+    <t>3.座舱与互联服务和数据的联动</t>
+  </si>
+  <si>
+    <t>4.内饰的智能化（与电子系统的联动）：通过HML实现对内饰件的电子化控制</t>
+  </si>
+  <si>
+    <t>5.整体座舱空间的灵活再分配</t>
+  </si>
+  <si>
+    <t>@六、疫情对智能座舱的影响</t>
+  </si>
+  <si>
+    <t>隔离双仓，净化空气，空调除菌</t>
+  </si>
+  <si>
+    <t>tcp/ip网络模型</t>
+  </si>
+  <si>
+    <t>C:\Users\zjj\Desktop\ZjjGit\zjj_project\测试_学习提升\Study_common\以太网\TcpIp基础知识</t>
+  </si>
+  <si>
+    <t>以太网总线</t>
   </si>
 </sst>
 </file>
@@ -26,10 +134,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -41,6 +149,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -48,74 +191,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,9 +205,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,6 +236,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -153,6 +260,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -162,30 +293,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,187 +308,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,6 +499,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -411,10 +528,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -431,33 +555,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,158 +588,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -993,17 +1110,198 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="1" spans="2:2">
+      <c r="B1" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="2:2">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:2">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1"/>
+    <row r="8" s="1" customFormat="1"/>
+    <row r="9" s="1" customFormat="1" spans="2:2">
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1"/>
+    <row r="11" s="1" customFormat="1" spans="2:2">
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1"/>
+    <row r="13" s="1" customFormat="1" spans="2:2">
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1"/>
+    <row r="15" s="1" customFormat="1" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
